--- a/data/pro_344_sm_suppinfo.xlsx
+++ b/data/pro_344_sm_suppinfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/praktika/r-praktika/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2060C5E6-B2F6-6649-B1AF-14FA38ED0029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DF332E-6544-1646-8B2A-7C6AC4E0BD96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9100" yWindow="460" windowWidth="19700" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="1191">
   <si>
     <r>
       <rPr>
@@ -9993,8 +9993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J609"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A559" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A569" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B592" sqref="B592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -16355,9 +16355,7 @@
       <c r="A263" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="B263" s="8" t="s">
-        <v>823</v>
-      </c>
+      <c r="B263" s="8"/>
       <c r="C263" s="31"/>
       <c r="D263" s="6">
         <v>-9.8000000000000007</v>
@@ -24804,9 +24802,7 @@
       <c r="A592" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B592" s="8" t="s">
-        <v>823</v>
-      </c>
+      <c r="B592" s="8"/>
       <c r="C592" s="31"/>
       <c r="D592" s="6">
         <v>-10.3</v>

--- a/data/pro_344_sm_suppinfo.xlsx
+++ b/data/pro_344_sm_suppinfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/praktika/r-praktika/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DF332E-6544-1646-8B2A-7C6AC4E0BD96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11AAC20-A9B6-894F-B2BF-EC953A61FCF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9100" yWindow="460" windowWidth="19700" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="1192">
   <si>
     <r>
       <rPr>
@@ -9264,6 +9264,9 @@
   </si>
   <si>
     <t>Tm</t>
+  </si>
+  <si>
+    <t>1OV5</t>
   </si>
 </sst>
 </file>
@@ -9993,8 +9996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J609"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A569" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B592" sqref="B592"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -19272,7 +19275,7 @@
         <v>787</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>1163</v>
+        <v>1191</v>
       </c>
       <c r="C379" s="32"/>
       <c r="D379" s="61">
